--- a/data/case1/19/cost_1.xlsx
+++ b/data/case1/19/cost_1.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>161.37956992826102</v>
+        <v>161.37066269105171</v>
       </c>
       <c r="B1" s="0">
-        <v>4.8525885263474011</v>
+        <v>4.8840506989050736</v>
       </c>
       <c r="C1" s="0">
-        <v>4.0443574690150035</v>
+        <v>3.9791258969341161</v>
       </c>
     </row>
   </sheetData>
